--- a/Top 10 Queens Neighborhoods TOtal COVID Tests.xlsx
+++ b/Top 10 Queens Neighborhoods TOtal COVID Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opnyc\Desktop\NYU MSPP\Policy and Data Studio\COVID-Analysis-Queens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D9F81F-0748-40D5-B285-81BC43660C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9436609-4607-4403-97B3-495CFBBF90C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,7 +775,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
